--- a/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/2_five_bus_radial_grid_yyn_gen_pf_sc_results_0_bus_ward34_solid.xlsx
+++ b/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/2_five_bus_radial_grid_yyn_gen_pf_sc_results_0_bus_ward34_solid.xlsx
@@ -529,22 +529,22 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>6.036435464831131</v>
+        <v>5.248639108480241</v>
       </c>
       <c r="C2">
-        <v>1150.095421386799</v>
+        <v>1000.000056712887</v>
       </c>
       <c r="D2">
-        <v>1.451153269415916</v>
+        <v>1.324394473835045</v>
       </c>
       <c r="E2">
-        <v>11.48161120914761</v>
+        <v>13.24394453564037</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>82.79661841601046</v>
+        <v>84.28940677566905</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -564,10 +564,10 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7144044587805313</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>15.06999865688234</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -587,10 +587,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9652661898437347</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>3.677631855800109</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -610,10 +610,10 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.100000023764874</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>-1.16437508859067E-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -633,10 +633,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.100000023764874</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>-1.164375088590669E-09</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -719,55 +719,55 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>5.227706460716396</v>
+        <v>4.545454803106412</v>
       </c>
       <c r="D2">
-        <v>5.227706460716396</v>
+        <v>4.545454803106412</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>332.0039505572853</v>
+        <v>288.6751509579041</v>
       </c>
       <c r="G2">
-        <v>332.0039505572853</v>
+        <v>288.6751509579041</v>
       </c>
       <c r="H2">
-        <v>1.324394477419385</v>
+        <v>1.324394477419386</v>
       </c>
       <c r="I2">
-        <v>13.24394453497092</v>
+        <v>13.243944534971</v>
       </c>
       <c r="J2">
-        <v>1.451153269669938</v>
+        <v>1.324394474186056</v>
       </c>
       <c r="K2">
-        <v>11.48161120921787</v>
+        <v>13.24394453578228</v>
       </c>
       <c r="L2">
-        <v>1.451153269621465</v>
+        <v>1.324394474104236</v>
       </c>
       <c r="M2">
-        <v>11.48161120914437</v>
+        <v>13.24394453563988</v>
       </c>
       <c r="N2">
-        <v>0.9526279647838861</v>
+        <v>0.9526279647803685</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.9526279647872185</v>
+        <v>0.9526279647833882</v>
       </c>
       <c r="Q2">
-        <v>-5.560539075069481E-11</v>
+        <v>-8.692030605078384E-11</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
-        <v>-179.9999999998618</v>
+        <v>-179.9999999999071</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -811,22 +811,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9263628701224353</v>
+        <v>0.9526279646671955</v>
       </c>
       <c r="O3">
-        <v>0.7144044587905427</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>1.100926326725327</v>
+        <v>0.9526279648965608</v>
       </c>
       <c r="Q3">
-        <v>21.85971731009334</v>
+        <v>1.457878492964093E-10</v>
       </c>
       <c r="R3">
-        <v>-74.93000134425772</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>161.7419237440982</v>
+        <v>179.9999999998456</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -870,22 +870,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.03992931268325</v>
+        <v>0.9526279646404242</v>
       </c>
       <c r="O4">
-        <v>0.9652661898515371</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>1.095178757979144</v>
+        <v>0.9526279649233321</v>
       </c>
       <c r="Q4">
-        <v>27.59030792399508</v>
+        <v>1.564915676528601E-09</v>
       </c>
       <c r="R4">
-        <v>-86.32236814444742</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>153.9100668331029</v>
+        <v>179.9999999984265</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -929,22 +929,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.100000023834696</v>
+        <v>0.9526279646315002</v>
       </c>
       <c r="O5">
-        <v>1.100000023770273</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>1.100000023815336</v>
+        <v>0.9526279649322559</v>
       </c>
       <c r="Q5">
-        <v>29.99999999806144</v>
+        <v>2.037958276970909E-09</v>
       </c>
       <c r="R5">
-        <v>-90.00000000116073</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>150.0000000013491</v>
+        <v>179.9999999979535</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -988,22 +988,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.100000023834696</v>
+        <v>0.9526279646315001</v>
       </c>
       <c r="O6">
-        <v>1.100000023770273</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>1.100000023815336</v>
+        <v>0.9526279649322557</v>
       </c>
       <c r="Q6">
-        <v>29.99999999806144</v>
+        <v>2.03795072457894E-09</v>
       </c>
       <c r="R6">
-        <v>-90.00000000116073</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>150.0000000013491</v>
+        <v>179.9999999979534</v>
       </c>
     </row>
   </sheetData>
@@ -1086,55 +1086,55 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>5.227706460716396</v>
+        <v>4.545454803106412</v>
       </c>
       <c r="D2">
-        <v>5.227706460716396</v>
+        <v>4.545454803106412</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>332.0039505572853</v>
+        <v>288.6751509579041</v>
       </c>
       <c r="G2">
-        <v>332.0039505572853</v>
+        <v>288.6751509579041</v>
       </c>
       <c r="H2">
-        <v>1.324394477419385</v>
+        <v>1.324394477419386</v>
       </c>
       <c r="I2">
-        <v>13.24394453497092</v>
+        <v>13.243944534971</v>
       </c>
       <c r="J2">
-        <v>1.451153269669938</v>
+        <v>1.324394474186056</v>
       </c>
       <c r="K2">
-        <v>11.48161120921787</v>
+        <v>13.24394453578228</v>
       </c>
       <c r="L2">
-        <v>1.451153269621465</v>
+        <v>1.324394474104236</v>
       </c>
       <c r="M2">
-        <v>11.48161120914437</v>
+        <v>13.24394453563988</v>
       </c>
       <c r="N2">
-        <v>0.9526279647838861</v>
+        <v>0.9526279647803685</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.9526279647872185</v>
+        <v>0.9526279647833882</v>
       </c>
       <c r="Q2">
-        <v>-5.560539075069481E-11</v>
+        <v>-8.692030605078384E-11</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
-        <v>-179.9999999998618</v>
+        <v>-179.9999999999071</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -1178,22 +1178,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9263628701224353</v>
+        <v>0.9526279646671955</v>
       </c>
       <c r="O3">
-        <v>0.7144044587905427</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>1.100926326725327</v>
+        <v>0.9526279648965608</v>
       </c>
       <c r="Q3">
-        <v>21.85971731009334</v>
+        <v>1.457878492964093E-10</v>
       </c>
       <c r="R3">
-        <v>-74.93000134425772</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>161.7419237440982</v>
+        <v>179.9999999998456</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -1237,22 +1237,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.03992931268325</v>
+        <v>0.9526279646404242</v>
       </c>
       <c r="O4">
-        <v>0.9652661898515371</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>1.095178757979144</v>
+        <v>0.9526279649233321</v>
       </c>
       <c r="Q4">
-        <v>27.59030792399508</v>
+        <v>1.564915676528601E-09</v>
       </c>
       <c r="R4">
-        <v>-86.32236814444742</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>153.9100668331029</v>
+        <v>179.9999999984265</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -1296,22 +1296,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.100000023834696</v>
+        <v>0.9526279646315002</v>
       </c>
       <c r="O5">
-        <v>1.100000023770273</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>1.100000023815336</v>
+        <v>0.9526279649322559</v>
       </c>
       <c r="Q5">
-        <v>29.99999999806144</v>
+        <v>2.037958276970909E-09</v>
       </c>
       <c r="R5">
-        <v>-90.00000000116073</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>150.0000000013491</v>
+        <v>179.9999999979535</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -1355,22 +1355,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.100000023834696</v>
+        <v>0.9526279646315001</v>
       </c>
       <c r="O6">
-        <v>1.100000023770273</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>1.100000023815336</v>
+        <v>0.9526279649322557</v>
       </c>
       <c r="Q6">
-        <v>29.99999999806144</v>
+        <v>2.03795072457894E-09</v>
       </c>
       <c r="R6">
-        <v>-90.00000000116073</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>150.0000000013491</v>
+        <v>179.9999999979534</v>
       </c>
     </row>
   </sheetData>
@@ -1453,55 +1453,55 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>5.227706460716396</v>
+        <v>4.545454803106412</v>
       </c>
       <c r="D2">
-        <v>5.227706460716396</v>
+        <v>4.545454803106412</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>332.0039505572853</v>
+        <v>288.6751509579041</v>
       </c>
       <c r="G2">
-        <v>332.0039505572853</v>
+        <v>288.6751509579041</v>
       </c>
       <c r="H2">
-        <v>1.324394477419385</v>
+        <v>1.324394477419386</v>
       </c>
       <c r="I2">
-        <v>13.24394453497092</v>
+        <v>13.243944534971</v>
       </c>
       <c r="J2">
-        <v>1.451153269669938</v>
+        <v>1.324394474186056</v>
       </c>
       <c r="K2">
-        <v>11.48161120921787</v>
+        <v>13.24394453578228</v>
       </c>
       <c r="L2">
-        <v>1.451153269621465</v>
+        <v>1.324394474104236</v>
       </c>
       <c r="M2">
-        <v>11.48161120914437</v>
+        <v>13.24394453563988</v>
       </c>
       <c r="N2">
-        <v>0.9526279647838861</v>
+        <v>0.9526279647803685</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.9526279647872185</v>
+        <v>0.9526279647833882</v>
       </c>
       <c r="Q2">
-        <v>-5.560539075069481E-11</v>
+        <v>-8.692030605078384E-11</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
-        <v>-179.9999999998618</v>
+        <v>-179.9999999999071</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -1545,22 +1545,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9263628701224353</v>
+        <v>0.9526279646671955</v>
       </c>
       <c r="O3">
-        <v>0.7144044587905427</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>1.100926326725327</v>
+        <v>0.9526279648965608</v>
       </c>
       <c r="Q3">
-        <v>21.85971731009334</v>
+        <v>1.457878492964093E-10</v>
       </c>
       <c r="R3">
-        <v>-74.93000134425772</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>161.7419237440982</v>
+        <v>179.9999999998456</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -1604,22 +1604,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.03992931268325</v>
+        <v>0.9526279646404242</v>
       </c>
       <c r="O4">
-        <v>0.9652661898515371</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>1.095178757979144</v>
+        <v>0.9526279649233321</v>
       </c>
       <c r="Q4">
-        <v>27.59030792399508</v>
+        <v>1.564915676528601E-09</v>
       </c>
       <c r="R4">
-        <v>-86.32236814444742</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>153.9100668331029</v>
+        <v>179.9999999984265</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -1663,22 +1663,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.100000023834696</v>
+        <v>0.9526279646315002</v>
       </c>
       <c r="O5">
-        <v>1.100000023770273</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>1.100000023815336</v>
+        <v>0.9526279649322559</v>
       </c>
       <c r="Q5">
-        <v>29.99999999806144</v>
+        <v>2.037958276970909E-09</v>
       </c>
       <c r="R5">
-        <v>-90.00000000116073</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>150.0000000013491</v>
+        <v>179.9999999979535</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -1722,22 +1722,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.100000023834696</v>
+        <v>0.9526279646315001</v>
       </c>
       <c r="O6">
-        <v>1.100000023770273</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>1.100000023815336</v>
+        <v>0.9526279649322557</v>
       </c>
       <c r="Q6">
-        <v>29.99999999806144</v>
+        <v>2.03795072457894E-09</v>
       </c>
       <c r="R6">
-        <v>-90.00000000116073</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>150.0000000013491</v>
+        <v>179.9999999979534</v>
       </c>
     </row>
   </sheetData>
@@ -1820,55 +1820,55 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.162140379264773</v>
+        <v>3.63636376375428</v>
       </c>
       <c r="D2">
-        <v>4.162140379264773</v>
+        <v>3.63636376375428</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>264.3314155210881</v>
+        <v>230.9401157662428</v>
       </c>
       <c r="G2">
-        <v>264.3314155210881</v>
+        <v>230.9401157662428</v>
       </c>
       <c r="H2">
-        <v>1.504993724976211</v>
+        <v>1.504993724976225</v>
       </c>
       <c r="I2">
-        <v>15.04993697142936</v>
+        <v>15.04993697142947</v>
       </c>
       <c r="J2">
-        <v>2.024404382478945</v>
+        <v>1.504993721246245</v>
       </c>
       <c r="K2">
-        <v>13.05836749393382</v>
+        <v>15.04993697324838</v>
       </c>
       <c r="L2">
-        <v>2.024404381992582</v>
+        <v>1.5049937206953</v>
       </c>
       <c r="M2">
-        <v>13.05836749319961</v>
+        <v>15.04993697229334</v>
       </c>
       <c r="N2">
-        <v>0.8660254037848566</v>
+        <v>0.8660254037845058</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.8660254037854865</v>
+        <v>0.8660254037849897</v>
       </c>
       <c r="Q2">
-        <v>2.467519526476712E-10</v>
+        <v>1.720135230673776E-10</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
-        <v>179.9999999997654</v>
+        <v>179.9999999998193</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -1912,22 +1912,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.7764090888429902</v>
+        <v>0.8660254036789676</v>
       </c>
       <c r="O3">
-        <v>0.5980950848578003</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>1.037327234784725</v>
+        <v>0.8660254038905275</v>
       </c>
       <c r="Q3">
-        <v>20.03711328358643</v>
+        <v>4.107325657298007E-10</v>
       </c>
       <c r="R3">
-        <v>-62.81773553696508</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>165.1406207586285</v>
+        <v>179.9999999995807</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -1971,22 +1971,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9226540531254919</v>
+        <v>0.8660254036546304</v>
       </c>
       <c r="O4">
-        <v>0.848912924145354</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>1.004507876844795</v>
+        <v>0.866025403914865</v>
       </c>
       <c r="Q4">
-        <v>27.21839473856681</v>
+        <v>3.135437461079933E-09</v>
       </c>
       <c r="R4">
-        <v>-83.84124847399414</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>155.1582859463579</v>
+        <v>179.999999996856</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -2030,22 +2030,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.000000000000581</v>
+        <v>0.8660254036465179</v>
       </c>
       <c r="O5">
-        <v>0.9999999999466319</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9999999999743074</v>
+        <v>0.8660254039229777</v>
       </c>
       <c r="Q5">
-        <v>29.99999999821417</v>
+        <v>4.043686462035157E-09</v>
       </c>
       <c r="R5">
-        <v>-90.00000000173458</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>150.0000000009094</v>
+        <v>179.9999999959477</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -2089,22 +2089,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.000000000000581</v>
+        <v>0.8660254036465179</v>
       </c>
       <c r="O6">
-        <v>0.9999999999466319</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.9999999999743074</v>
+        <v>0.8660254039229776</v>
       </c>
       <c r="Q6">
-        <v>29.99999999821417</v>
+        <v>4.043673739804489E-09</v>
       </c>
       <c r="R6">
-        <v>-90.00000000173458</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>150.0000000009094</v>
+        <v>179.9999999959477</v>
       </c>
     </row>
   </sheetData>
@@ -2187,55 +2187,55 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.162140379264773</v>
+        <v>3.63636376375428</v>
       </c>
       <c r="D2">
-        <v>4.162140379264773</v>
+        <v>3.63636376375428</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>264.3314155210881</v>
+        <v>230.9401157662428</v>
       </c>
       <c r="G2">
-        <v>264.3314155210881</v>
+        <v>230.9401157662428</v>
       </c>
       <c r="H2">
-        <v>1.504993724976211</v>
+        <v>1.504993724976225</v>
       </c>
       <c r="I2">
-        <v>15.04993697142936</v>
+        <v>15.04993697142947</v>
       </c>
       <c r="J2">
-        <v>2.024404382478945</v>
+        <v>1.504993721246245</v>
       </c>
       <c r="K2">
-        <v>13.05836749393382</v>
+        <v>15.04993697324838</v>
       </c>
       <c r="L2">
-        <v>2.024404381992582</v>
+        <v>1.5049937206953</v>
       </c>
       <c r="M2">
-        <v>13.05836749319961</v>
+        <v>15.04993697229334</v>
       </c>
       <c r="N2">
-        <v>0.8660254037848566</v>
+        <v>0.8660254037845058</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.8660254037854865</v>
+        <v>0.8660254037849897</v>
       </c>
       <c r="Q2">
-        <v>2.467519526476712E-10</v>
+        <v>1.720135230673776E-10</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
-        <v>179.9999999997654</v>
+        <v>179.9999999998193</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -2279,22 +2279,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.7764090888429902</v>
+        <v>0.8660254036789676</v>
       </c>
       <c r="O3">
-        <v>0.5980950848578003</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>1.037327234784725</v>
+        <v>0.8660254038905275</v>
       </c>
       <c r="Q3">
-        <v>20.03711328358643</v>
+        <v>4.107325657298007E-10</v>
       </c>
       <c r="R3">
-        <v>-62.81773553696508</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>165.1406207586285</v>
+        <v>179.9999999995807</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -2338,22 +2338,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9226540531254919</v>
+        <v>0.8660254036546304</v>
       </c>
       <c r="O4">
-        <v>0.848912924145354</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>1.004507876844795</v>
+        <v>0.866025403914865</v>
       </c>
       <c r="Q4">
-        <v>27.21839473856681</v>
+        <v>3.135437461079933E-09</v>
       </c>
       <c r="R4">
-        <v>-83.84124847399414</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>155.1582859463579</v>
+        <v>179.999999996856</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -2397,22 +2397,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.000000000000581</v>
+        <v>0.8660254036465179</v>
       </c>
       <c r="O5">
-        <v>0.9999999999466319</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9999999999743074</v>
+        <v>0.8660254039229777</v>
       </c>
       <c r="Q5">
-        <v>29.99999999821417</v>
+        <v>4.043686462035157E-09</v>
       </c>
       <c r="R5">
-        <v>-90.00000000173458</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>150.0000000009094</v>
+        <v>179.9999999959477</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -2456,22 +2456,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.000000000000581</v>
+        <v>0.8660254036465179</v>
       </c>
       <c r="O6">
-        <v>0.9999999999466319</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.9999999999743074</v>
+        <v>0.8660254039229776</v>
       </c>
       <c r="Q6">
-        <v>29.99999999821417</v>
+        <v>4.043673739804489E-09</v>
       </c>
       <c r="R6">
-        <v>-90.00000000173458</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>150.0000000009094</v>
+        <v>179.9999999959477</v>
       </c>
     </row>
   </sheetData>
@@ -2554,55 +2554,55 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.162140379264773</v>
+        <v>3.63636376375428</v>
       </c>
       <c r="D2">
-        <v>4.162140379264773</v>
+        <v>3.63636376375428</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>264.3314155210881</v>
+        <v>230.9401157662428</v>
       </c>
       <c r="G2">
-        <v>264.3314155210881</v>
+        <v>230.9401157662428</v>
       </c>
       <c r="H2">
-        <v>1.504993724976211</v>
+        <v>1.504993724976225</v>
       </c>
       <c r="I2">
-        <v>15.04993697142936</v>
+        <v>15.04993697142947</v>
       </c>
       <c r="J2">
-        <v>2.024404382478945</v>
+        <v>1.504993721246245</v>
       </c>
       <c r="K2">
-        <v>13.05836749393382</v>
+        <v>15.04993697324838</v>
       </c>
       <c r="L2">
-        <v>2.024404381992582</v>
+        <v>1.5049937206953</v>
       </c>
       <c r="M2">
-        <v>13.05836749319961</v>
+        <v>15.04993697229334</v>
       </c>
       <c r="N2">
-        <v>0.8660254037848566</v>
+        <v>0.8660254037845058</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.8660254037854865</v>
+        <v>0.8660254037849897</v>
       </c>
       <c r="Q2">
-        <v>2.467519526476712E-10</v>
+        <v>1.720135230673776E-10</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
-        <v>179.9999999997654</v>
+        <v>179.9999999998193</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -2646,22 +2646,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.7764090888429902</v>
+        <v>0.8660254036789676</v>
       </c>
       <c r="O3">
-        <v>0.5980950848578003</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>1.037327234784725</v>
+        <v>0.8660254038905275</v>
       </c>
       <c r="Q3">
-        <v>20.03711328358643</v>
+        <v>4.107325657298007E-10</v>
       </c>
       <c r="R3">
-        <v>-62.81773553696508</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>165.1406207586285</v>
+        <v>179.9999999995807</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -2705,22 +2705,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9226540531254919</v>
+        <v>0.8660254036546304</v>
       </c>
       <c r="O4">
-        <v>0.848912924145354</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>1.004507876844795</v>
+        <v>0.866025403914865</v>
       </c>
       <c r="Q4">
-        <v>27.21839473856681</v>
+        <v>3.135437461079933E-09</v>
       </c>
       <c r="R4">
-        <v>-83.84124847399414</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>155.1582859463579</v>
+        <v>179.999999996856</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -2764,22 +2764,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.000000000000581</v>
+        <v>0.8660254036465179</v>
       </c>
       <c r="O5">
-        <v>0.9999999999466319</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9999999999743074</v>
+        <v>0.8660254039229777</v>
       </c>
       <c r="Q5">
-        <v>29.99999999821417</v>
+        <v>4.043686462035157E-09</v>
       </c>
       <c r="R5">
-        <v>-90.00000000173458</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>150.0000000009094</v>
+        <v>179.9999999959477</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -2823,22 +2823,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.000000000000581</v>
+        <v>0.8660254036465179</v>
       </c>
       <c r="O6">
-        <v>0.9999999999466319</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.9999999999743074</v>
+        <v>0.8660254039229776</v>
       </c>
       <c r="Q6">
-        <v>29.99999999821417</v>
+        <v>4.043673739804489E-09</v>
       </c>
       <c r="R6">
-        <v>-90.00000000173458</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>150.0000000009094</v>
+        <v>179.9999999959477</v>
       </c>
     </row>
   </sheetData>
@@ -2921,55 +2921,55 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.162140379264773</v>
+        <v>3.63636376375428</v>
       </c>
       <c r="D2">
-        <v>4.162140379264773</v>
+        <v>3.63636376375428</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>264.3314155210881</v>
+        <v>230.9401157662428</v>
       </c>
       <c r="G2">
-        <v>264.3314155210881</v>
+        <v>230.9401157662428</v>
       </c>
       <c r="H2">
-        <v>1.504993724976211</v>
+        <v>1.504993724976225</v>
       </c>
       <c r="I2">
-        <v>15.04993697142936</v>
+        <v>15.04993697142947</v>
       </c>
       <c r="J2">
-        <v>2.024404382478945</v>
+        <v>1.504993721246245</v>
       </c>
       <c r="K2">
-        <v>13.05836749393382</v>
+        <v>15.04993697324838</v>
       </c>
       <c r="L2">
-        <v>2.024404381992582</v>
+        <v>1.5049937206953</v>
       </c>
       <c r="M2">
-        <v>13.05836749319961</v>
+        <v>15.04993697229334</v>
       </c>
       <c r="N2">
-        <v>0.8660254037848566</v>
+        <v>0.8660254037845058</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.8660254037854865</v>
+        <v>0.8660254037849897</v>
       </c>
       <c r="Q2">
-        <v>2.467519526476712E-10</v>
+        <v>1.720135230673776E-10</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
-        <v>179.9999999997654</v>
+        <v>179.9999999998193</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -3013,22 +3013,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.7764090888429902</v>
+        <v>0.8660254036789676</v>
       </c>
       <c r="O3">
-        <v>0.5980950848578003</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>1.037327234784725</v>
+        <v>0.8660254038905275</v>
       </c>
       <c r="Q3">
-        <v>20.03711328358643</v>
+        <v>4.107325657298007E-10</v>
       </c>
       <c r="R3">
-        <v>-62.81773553696508</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>165.1406207586285</v>
+        <v>179.9999999995807</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -3072,22 +3072,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9226540531254919</v>
+        <v>0.8660254036546304</v>
       </c>
       <c r="O4">
-        <v>0.848912924145354</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>1.004507876844795</v>
+        <v>0.866025403914865</v>
       </c>
       <c r="Q4">
-        <v>27.21839473856681</v>
+        <v>3.135437461079933E-09</v>
       </c>
       <c r="R4">
-        <v>-83.84124847399414</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>155.1582859463579</v>
+        <v>179.999999996856</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -3131,22 +3131,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.000000000000581</v>
+        <v>0.8660254036465179</v>
       </c>
       <c r="O5">
-        <v>0.9999999999466319</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9999999999743074</v>
+        <v>0.8660254039229777</v>
       </c>
       <c r="Q5">
-        <v>29.99999999821417</v>
+        <v>4.043686462035157E-09</v>
       </c>
       <c r="R5">
-        <v>-90.00000000173458</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>150.0000000009094</v>
+        <v>179.9999999959477</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -3190,22 +3190,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.000000000000581</v>
+        <v>0.8660254036465179</v>
       </c>
       <c r="O6">
-        <v>0.9999999999466319</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.9999999999743074</v>
+        <v>0.8660254039229776</v>
       </c>
       <c r="Q6">
-        <v>29.99999999821417</v>
+        <v>4.043673739804489E-09</v>
       </c>
       <c r="R6">
-        <v>-90.00000000173458</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>150.0000000009094</v>
+        <v>179.9999999959477</v>
       </c>
     </row>
   </sheetData>
@@ -3288,7 +3288,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>5.749264446688134</v>
+        <v>5.248639108526413</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -3297,7 +3297,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>365.1273313531512</v>
+        <v>333.3333522405614</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -3306,43 +3306,43 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1.324394477419444</v>
+        <v>1.32439447741944</v>
       </c>
       <c r="I2">
-        <v>13.24394453496995</v>
+        <v>13.2439445349699</v>
       </c>
       <c r="J2">
-        <v>1.451153268858338</v>
+        <v>1.324394473163437</v>
       </c>
       <c r="K2">
-        <v>11.48161120915739</v>
+        <v>13.24394453564036</v>
       </c>
       <c r="L2">
-        <v>1.451153269621514</v>
+        <v>1.32439447410434</v>
       </c>
       <c r="M2">
-        <v>11.48161120914417</v>
+        <v>13.24394453563962</v>
       </c>
       <c r="N2">
-        <v>0.6556027354356818</v>
+        <v>0.6350853098740155</v>
       </c>
       <c r="O2">
-        <v>1.100000023879182</v>
+        <v>1.100000023884843</v>
       </c>
       <c r="P2">
-        <v>0.6458770585292876</v>
+        <v>0.6350853099409383</v>
       </c>
       <c r="Q2">
-        <v>57.96223567360997</v>
+        <v>59.99999999685335</v>
       </c>
       <c r="R2">
-        <v>-90.00000000005058</v>
+        <v>-89.99999999999633</v>
       </c>
       <c r="S2">
-        <v>122.5792803076576</v>
+        <v>119.9999999996536</v>
       </c>
       <c r="T2">
-        <v>5.749264446688135</v>
+        <v>5.248639108526412</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -3386,22 +3386,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9788572976450968</v>
+        <v>0.6350853099894115</v>
       </c>
       <c r="O3">
-        <v>1.1000000238514</v>
+        <v>1.100000023884844</v>
       </c>
       <c r="P3">
-        <v>0.8536677663527227</v>
+        <v>0.6350853098300094</v>
       </c>
       <c r="Q3">
-        <v>41.94451483035046</v>
+        <v>60.0000000023992</v>
       </c>
       <c r="R3">
-        <v>-90.00000000036694</v>
+        <v>-89.99999999999581</v>
       </c>
       <c r="S3">
-        <v>148.5250903100137</v>
+        <v>120.0000000058974</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -3448,22 +3448,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.05471857972125</v>
+        <v>0.6350853100298055</v>
       </c>
       <c r="O4">
-        <v>1.100000023841611</v>
+        <v>1.100000023884844</v>
       </c>
       <c r="P4">
-        <v>1.017821348671589</v>
+        <v>0.6350853098168605</v>
       </c>
       <c r="Q4">
-        <v>33.6709366407567</v>
+        <v>60.00000000166497</v>
       </c>
       <c r="R4">
-        <v>-90.00000000011988</v>
+        <v>-89.99999999999582</v>
       </c>
       <c r="S4">
-        <v>149.587696249422</v>
+        <v>120.0000000094205</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -3510,22 +3510,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.100000023795903</v>
+        <v>0.6350853100432701</v>
       </c>
       <c r="O5">
-        <v>1.100000023836716</v>
+        <v>1.100000023884844</v>
       </c>
       <c r="P5">
-        <v>1.100000023807813</v>
+        <v>0.6350853098124773</v>
       </c>
       <c r="Q5">
-        <v>30.00000000050983</v>
+        <v>60.00000000142024</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999582</v>
       </c>
       <c r="S5">
-        <v>149.9999999984084</v>
+        <v>120.0000000105949</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -3572,22 +3572,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.100000023795903</v>
+        <v>0.63508531004327</v>
       </c>
       <c r="O6">
-        <v>1.100000023836716</v>
+        <v>1.100000023884844</v>
       </c>
       <c r="P6">
-        <v>1.100000023807813</v>
+        <v>0.6350853098124773</v>
       </c>
       <c r="Q6">
-        <v>30.00000000050983</v>
+        <v>60.00000000142024</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999582</v>
       </c>
       <c r="S6">
-        <v>149.9999999984084</v>
+        <v>120.0000000105948</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -3673,7 +3673,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>5.749264446688134</v>
+        <v>5.248639108526413</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -3682,7 +3682,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>365.1273313531512</v>
+        <v>333.3333522405614</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -3691,43 +3691,43 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1.324394477419444</v>
+        <v>1.32439447741944</v>
       </c>
       <c r="I2">
-        <v>13.24394453496995</v>
+        <v>13.2439445349699</v>
       </c>
       <c r="J2">
-        <v>1.451153268858338</v>
+        <v>1.324394473163437</v>
       </c>
       <c r="K2">
-        <v>11.48161120915739</v>
+        <v>13.24394453564036</v>
       </c>
       <c r="L2">
-        <v>1.451153269621514</v>
+        <v>1.32439447410434</v>
       </c>
       <c r="M2">
-        <v>11.48161120914417</v>
+        <v>13.24394453563962</v>
       </c>
       <c r="N2">
-        <v>0.6556027354356818</v>
+        <v>0.6350853098740155</v>
       </c>
       <c r="O2">
-        <v>1.100000023879182</v>
+        <v>1.100000023884843</v>
       </c>
       <c r="P2">
-        <v>0.6458770585292876</v>
+        <v>0.6350853099409383</v>
       </c>
       <c r="Q2">
-        <v>57.96223567360997</v>
+        <v>59.99999999685335</v>
       </c>
       <c r="R2">
-        <v>-90.00000000005058</v>
+        <v>-89.99999999999633</v>
       </c>
       <c r="S2">
-        <v>122.5792803076576</v>
+        <v>119.9999999996536</v>
       </c>
       <c r="T2">
-        <v>5.749264446688135</v>
+        <v>5.248639108526412</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -3771,22 +3771,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9788572976450968</v>
+        <v>0.6350853099894115</v>
       </c>
       <c r="O3">
-        <v>1.1000000238514</v>
+        <v>1.100000023884844</v>
       </c>
       <c r="P3">
-        <v>0.8536677663527227</v>
+        <v>0.6350853098300094</v>
       </c>
       <c r="Q3">
-        <v>41.94451483035046</v>
+        <v>60.0000000023992</v>
       </c>
       <c r="R3">
-        <v>-90.00000000036694</v>
+        <v>-89.99999999999581</v>
       </c>
       <c r="S3">
-        <v>148.5250903100137</v>
+        <v>120.0000000058974</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -3833,22 +3833,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.05471857972125</v>
+        <v>0.6350853100298055</v>
       </c>
       <c r="O4">
-        <v>1.100000023841611</v>
+        <v>1.100000023884844</v>
       </c>
       <c r="P4">
-        <v>1.017821348671589</v>
+        <v>0.6350853098168605</v>
       </c>
       <c r="Q4">
-        <v>33.6709366407567</v>
+        <v>60.00000000166497</v>
       </c>
       <c r="R4">
-        <v>-90.00000000011988</v>
+        <v>-89.99999999999582</v>
       </c>
       <c r="S4">
-        <v>149.587696249422</v>
+        <v>120.0000000094205</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -3895,22 +3895,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.100000023795903</v>
+        <v>0.6350853100432701</v>
       </c>
       <c r="O5">
-        <v>1.100000023836716</v>
+        <v>1.100000023884844</v>
       </c>
       <c r="P5">
-        <v>1.100000023807813</v>
+        <v>0.6350853098124773</v>
       </c>
       <c r="Q5">
-        <v>30.00000000050983</v>
+        <v>60.00000000142024</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999582</v>
       </c>
       <c r="S5">
-        <v>149.9999999984084</v>
+        <v>120.0000000105949</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -3957,22 +3957,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.100000023795903</v>
+        <v>0.63508531004327</v>
       </c>
       <c r="O6">
-        <v>1.100000023836716</v>
+        <v>1.100000023884844</v>
       </c>
       <c r="P6">
-        <v>1.100000023807813</v>
+        <v>0.6350853098124773</v>
       </c>
       <c r="Q6">
-        <v>30.00000000050983</v>
+        <v>60.00000000142024</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999582</v>
       </c>
       <c r="S6">
-        <v>149.9999999984084</v>
+        <v>120.0000000105948</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -4058,7 +4058,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>3.831570549162906</v>
+        <v>3.617960382473001</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -4067,7 +4067,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>243.3374116776071</v>
+        <v>229.7713440812008</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -4076,43 +4076,43 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1.324394477419444</v>
+        <v>1.32439447741944</v>
       </c>
       <c r="I2">
-        <v>13.24394453496995</v>
+        <v>13.2439445349699</v>
       </c>
       <c r="J2">
-        <v>1.451153268858338</v>
+        <v>1.324394473163437</v>
       </c>
       <c r="K2">
-        <v>11.48161120915739</v>
+        <v>13.24394453564036</v>
       </c>
       <c r="L2">
-        <v>1.451153269621514</v>
+        <v>1.32439447410434</v>
       </c>
       <c r="M2">
-        <v>11.48161120914417</v>
+        <v>13.24394453563962</v>
       </c>
       <c r="N2">
-        <v>0.7229913493234799</v>
+        <v>0.6918398877278027</v>
       </c>
       <c r="O2">
-        <v>1.100000023869021</v>
+        <v>1.100000023874158</v>
       </c>
       <c r="P2">
-        <v>0.8531614078432681</v>
+        <v>0.8378427578966808</v>
       </c>
       <c r="Q2">
-        <v>39.17854446725831</v>
+        <v>40.40951795604944</v>
       </c>
       <c r="R2">
-        <v>-90.00000000003376</v>
+        <v>-89.99999999999652</v>
       </c>
       <c r="S2">
-        <v>131.0645442530766</v>
+        <v>128.9574716956184</v>
       </c>
       <c r="T2">
-        <v>3.831570549162906</v>
+        <v>3.617960382473002</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -4156,22 +4156,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9814296263287706</v>
+        <v>0.6918398877714428</v>
       </c>
       <c r="O3">
-        <v>1.100000023848866</v>
+        <v>1.100000023874165</v>
       </c>
       <c r="P3">
-        <v>0.945524458546022</v>
+        <v>0.8378427578167497</v>
       </c>
       <c r="Q3">
-        <v>36.3311293822985</v>
+        <v>40.40951796258043</v>
       </c>
       <c r="R3">
-        <v>-90.00000000025102</v>
+        <v>-89.99999999999615</v>
       </c>
       <c r="S3">
-        <v>146.7408377388894</v>
+        <v>128.9574716984651</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -4218,22 +4218,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.059095963175825</v>
+        <v>0.6918398877978504</v>
       </c>
       <c r="O4">
-        <v>1.100000023842139</v>
+        <v>1.100000023874165</v>
       </c>
       <c r="P4">
-        <v>1.048151574277144</v>
+        <v>0.8378427578056242</v>
       </c>
       <c r="Q4">
-        <v>31.95201724885198</v>
+        <v>40.40951796344667</v>
       </c>
       <c r="R4">
-        <v>-90.00000000008124</v>
+        <v>-89.99999999999615</v>
       </c>
       <c r="S4">
-        <v>149.0204641647017</v>
+        <v>128.9574717002523</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -4280,22 +4280,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.100000023810802</v>
+        <v>0.6918398878066528</v>
       </c>
       <c r="O5">
-        <v>1.100000023838776</v>
+        <v>1.100000023874165</v>
       </c>
       <c r="P5">
-        <v>1.10000002382496</v>
+        <v>0.8378427578019155</v>
       </c>
       <c r="Q5">
-        <v>29.9999999999885</v>
+        <v>40.40951796373541</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999615</v>
       </c>
       <c r="S5">
-        <v>149.9999999987269</v>
+        <v>128.957471700848</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -4342,22 +4342,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.100000023810802</v>
+        <v>0.6918398878066528</v>
       </c>
       <c r="O6">
-        <v>1.100000023838776</v>
+        <v>1.100000023874165</v>
       </c>
       <c r="P6">
-        <v>1.10000002382496</v>
+        <v>0.8378427578019157</v>
       </c>
       <c r="Q6">
-        <v>29.9999999999885</v>
+        <v>40.40951796373541</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999615</v>
       </c>
       <c r="S6">
-        <v>149.9999999987269</v>
+        <v>128.957471700848</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -4404,22 +4404,22 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>6.036435464831131</v>
+        <v>5.248639108480241</v>
       </c>
       <c r="C2">
-        <v>1150.095421386799</v>
+        <v>1000.000056712887</v>
       </c>
       <c r="D2">
-        <v>1.451153269415916</v>
+        <v>1.324394473835045</v>
       </c>
       <c r="E2">
-        <v>11.48161120914761</v>
+        <v>13.24394453564037</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>82.79661841601046</v>
+        <v>84.28940677566905</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -4439,10 +4439,10 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7144044587805313</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>15.06999865688234</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -4462,10 +4462,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9652661898437347</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>3.677631855800109</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -4485,10 +4485,10 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.100000023764874</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>-1.16437508859067E-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -4508,10 +4508,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.100000023764874</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>-1.164375088590669E-09</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4594,7 +4594,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>3.831570549162906</v>
+        <v>3.617960382473001</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -4603,7 +4603,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>243.3374116776071</v>
+        <v>229.7713440812008</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -4612,43 +4612,43 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1.324394477419444</v>
+        <v>1.32439447741944</v>
       </c>
       <c r="I2">
-        <v>13.24394453496995</v>
+        <v>13.2439445349699</v>
       </c>
       <c r="J2">
-        <v>1.451153268858338</v>
+        <v>1.324394473163437</v>
       </c>
       <c r="K2">
-        <v>11.48161120915739</v>
+        <v>13.24394453564036</v>
       </c>
       <c r="L2">
-        <v>1.451153269621514</v>
+        <v>1.32439447410434</v>
       </c>
       <c r="M2">
-        <v>11.48161120914417</v>
+        <v>13.24394453563962</v>
       </c>
       <c r="N2">
-        <v>0.7229913493234799</v>
+        <v>0.6918398877278027</v>
       </c>
       <c r="O2">
-        <v>1.100000023869021</v>
+        <v>1.100000023874158</v>
       </c>
       <c r="P2">
-        <v>0.8531614078432681</v>
+        <v>0.8378427578966808</v>
       </c>
       <c r="Q2">
-        <v>39.17854446725831</v>
+        <v>40.40951795604944</v>
       </c>
       <c r="R2">
-        <v>-90.00000000003376</v>
+        <v>-89.99999999999652</v>
       </c>
       <c r="S2">
-        <v>131.0645442530766</v>
+        <v>128.9574716956184</v>
       </c>
       <c r="T2">
-        <v>3.831570549162906</v>
+        <v>3.617960382473002</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -4692,22 +4692,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9814296263287706</v>
+        <v>0.6918398877714428</v>
       </c>
       <c r="O3">
-        <v>1.100000023848866</v>
+        <v>1.100000023874165</v>
       </c>
       <c r="P3">
-        <v>0.945524458546022</v>
+        <v>0.8378427578167497</v>
       </c>
       <c r="Q3">
-        <v>36.3311293822985</v>
+        <v>40.40951796258043</v>
       </c>
       <c r="R3">
-        <v>-90.00000000025102</v>
+        <v>-89.99999999999615</v>
       </c>
       <c r="S3">
-        <v>146.7408377388894</v>
+        <v>128.9574716984651</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -4754,22 +4754,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.059095963175825</v>
+        <v>0.6918398877978504</v>
       </c>
       <c r="O4">
-        <v>1.100000023842139</v>
+        <v>1.100000023874165</v>
       </c>
       <c r="P4">
-        <v>1.048151574277144</v>
+        <v>0.8378427578056242</v>
       </c>
       <c r="Q4">
-        <v>31.95201724885198</v>
+        <v>40.40951796344667</v>
       </c>
       <c r="R4">
-        <v>-90.00000000008124</v>
+        <v>-89.99999999999615</v>
       </c>
       <c r="S4">
-        <v>149.0204641647017</v>
+        <v>128.9574717002523</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -4816,22 +4816,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.100000023810802</v>
+        <v>0.6918398878066528</v>
       </c>
       <c r="O5">
-        <v>1.100000023838776</v>
+        <v>1.100000023874165</v>
       </c>
       <c r="P5">
-        <v>1.10000002382496</v>
+        <v>0.8378427578019155</v>
       </c>
       <c r="Q5">
-        <v>29.9999999999885</v>
+        <v>40.40951796373541</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999615</v>
       </c>
       <c r="S5">
-        <v>149.9999999987269</v>
+        <v>128.957471700848</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -4878,22 +4878,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.100000023810802</v>
+        <v>0.6918398878066528</v>
       </c>
       <c r="O6">
-        <v>1.100000023838776</v>
+        <v>1.100000023874165</v>
       </c>
       <c r="P6">
-        <v>1.10000002382496</v>
+        <v>0.8378427578019157</v>
       </c>
       <c r="Q6">
-        <v>29.9999999999885</v>
+        <v>40.40951796373541</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999615</v>
       </c>
       <c r="S6">
-        <v>149.9999999987269</v>
+        <v>128.957471700848</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -4979,7 +4979,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>4.586599791654315</v>
+        <v>4.198911195792623</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -4988,7 +4988,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>291.288208681437</v>
+        <v>266.6666760113625</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -4997,43 +4997,43 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1.504993724976294</v>
+        <v>1.504993724976284</v>
       </c>
       <c r="I2">
-        <v>15.04993697142828</v>
+        <v>15.04993697142822</v>
       </c>
       <c r="J2">
-        <v>2.024404383466214</v>
+        <v>1.504993722648794</v>
       </c>
       <c r="K2">
-        <v>13.05836749311504</v>
+        <v>15.04993697229388</v>
       </c>
       <c r="L2">
-        <v>2.024404381992635</v>
+        <v>1.50499372069543</v>
       </c>
       <c r="M2">
-        <v>13.05836749319938</v>
+        <v>15.04993697229304</v>
       </c>
       <c r="N2">
-        <v>0.6002394598434823</v>
+        <v>0.5773502691155634</v>
       </c>
       <c r="O2">
-        <v>0.9999999999976865</v>
+        <v>0.9999999999962951</v>
       </c>
       <c r="P2">
-        <v>0.5818736976209914</v>
+        <v>0.577350269254178</v>
       </c>
       <c r="Q2">
-        <v>58.32995021585435</v>
+        <v>59.99999999647622</v>
       </c>
       <c r="R2">
-        <v>-89.99999999998766</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>122.7925106187596</v>
+        <v>119.9999999955745</v>
       </c>
       <c r="T2">
-        <v>4.586599791654315</v>
+        <v>4.198911195792623</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -5077,22 +5077,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8963084807768622</v>
+        <v>0.5773502692231758</v>
       </c>
       <c r="O3">
-        <v>0.9999999999948421</v>
+        <v>0.9999999999962955</v>
       </c>
       <c r="P3">
-        <v>0.7015559721735826</v>
+        <v>0.5773502691507324</v>
       </c>
       <c r="Q3">
-        <v>47.00707995720057</v>
+        <v>60.00000000216501</v>
       </c>
       <c r="R3">
-        <v>-89.99999999994755</v>
+        <v>-89.99999999999585</v>
       </c>
       <c r="S3">
-        <v>150.5991108903422</v>
+        <v>120.0000000019794</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -5139,22 +5139,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9563713592339109</v>
+        <v>0.5773502692712905</v>
       </c>
       <c r="O4">
-        <v>0.9999999999956999</v>
+        <v>0.9999999999962953</v>
       </c>
       <c r="P4">
-        <v>0.9005091929446085</v>
+        <v>0.5773502691501725</v>
       </c>
       <c r="Q4">
-        <v>35.24263161627735</v>
+        <v>59.99999999947237</v>
       </c>
       <c r="R4">
-        <v>-89.99999999998009</v>
+        <v>-89.99999999999585</v>
       </c>
       <c r="S4">
-        <v>150.1555796359135</v>
+        <v>120.0000000074609</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -5201,22 +5201,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.999999999961822</v>
+        <v>0.577350269287329</v>
       </c>
       <c r="O5">
-        <v>0.9999999999961287</v>
+        <v>0.9999999999962956</v>
       </c>
       <c r="P5">
-        <v>0.9999999999779438</v>
+        <v>0.5773502691499859</v>
       </c>
       <c r="Q5">
-        <v>30.00000000006703</v>
+        <v>59.99999999857484</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999586</v>
       </c>
       <c r="S5">
-        <v>149.9999999983258</v>
+        <v>120.000000009288</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -5263,22 +5263,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.999999999961822</v>
+        <v>0.5773502692873288</v>
       </c>
       <c r="O6">
-        <v>0.9999999999961287</v>
+        <v>0.9999999999962953</v>
       </c>
       <c r="P6">
-        <v>0.9999999999779438</v>
+        <v>0.5773502691499859</v>
       </c>
       <c r="Q6">
-        <v>30.00000000006703</v>
+        <v>59.99999999857484</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999585</v>
       </c>
       <c r="S6">
-        <v>149.9999999983258</v>
+        <v>120.000000009288</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -5364,7 +5364,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>4.586599791654315</v>
+        <v>4.198911195792623</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -5373,7 +5373,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>291.288208681437</v>
+        <v>266.6666760113625</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -5382,43 +5382,43 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1.504993724976294</v>
+        <v>1.504993724976284</v>
       </c>
       <c r="I2">
-        <v>15.04993697142828</v>
+        <v>15.04993697142822</v>
       </c>
       <c r="J2">
-        <v>2.024404383466214</v>
+        <v>1.504993722648794</v>
       </c>
       <c r="K2">
-        <v>13.05836749311504</v>
+        <v>15.04993697229388</v>
       </c>
       <c r="L2">
-        <v>2.024404381992635</v>
+        <v>1.50499372069543</v>
       </c>
       <c r="M2">
-        <v>13.05836749319938</v>
+        <v>15.04993697229304</v>
       </c>
       <c r="N2">
-        <v>0.6002394598434823</v>
+        <v>0.5773502691155634</v>
       </c>
       <c r="O2">
-        <v>0.9999999999976865</v>
+        <v>0.9999999999962951</v>
       </c>
       <c r="P2">
-        <v>0.5818736976209914</v>
+        <v>0.577350269254178</v>
       </c>
       <c r="Q2">
-        <v>58.32995021585435</v>
+        <v>59.99999999647622</v>
       </c>
       <c r="R2">
-        <v>-89.99999999998766</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>122.7925106187596</v>
+        <v>119.9999999955745</v>
       </c>
       <c r="T2">
-        <v>4.586599791654315</v>
+        <v>4.198911195792623</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -5462,22 +5462,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8963084807768622</v>
+        <v>0.5773502692231758</v>
       </c>
       <c r="O3">
-        <v>0.9999999999948421</v>
+        <v>0.9999999999962955</v>
       </c>
       <c r="P3">
-        <v>0.7015559721735826</v>
+        <v>0.5773502691507324</v>
       </c>
       <c r="Q3">
-        <v>47.00707995720057</v>
+        <v>60.00000000216501</v>
       </c>
       <c r="R3">
-        <v>-89.99999999994755</v>
+        <v>-89.99999999999585</v>
       </c>
       <c r="S3">
-        <v>150.5991108903422</v>
+        <v>120.0000000019794</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -5524,22 +5524,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9563713592339109</v>
+        <v>0.5773502692712905</v>
       </c>
       <c r="O4">
-        <v>0.9999999999956999</v>
+        <v>0.9999999999962953</v>
       </c>
       <c r="P4">
-        <v>0.9005091929446085</v>
+        <v>0.5773502691501725</v>
       </c>
       <c r="Q4">
-        <v>35.24263161627735</v>
+        <v>59.99999999947237</v>
       </c>
       <c r="R4">
-        <v>-89.99999999998009</v>
+        <v>-89.99999999999585</v>
       </c>
       <c r="S4">
-        <v>150.1555796359135</v>
+        <v>120.0000000074609</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -5586,22 +5586,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.999999999961822</v>
+        <v>0.577350269287329</v>
       </c>
       <c r="O5">
-        <v>0.9999999999961287</v>
+        <v>0.9999999999962956</v>
       </c>
       <c r="P5">
-        <v>0.9999999999779438</v>
+        <v>0.5773502691499859</v>
       </c>
       <c r="Q5">
-        <v>30.00000000006703</v>
+        <v>59.99999999857484</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999586</v>
       </c>
       <c r="S5">
-        <v>149.9999999983258</v>
+        <v>120.000000009288</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -5648,22 +5648,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.999999999961822</v>
+        <v>0.5773502692873288</v>
       </c>
       <c r="O6">
-        <v>0.9999999999961287</v>
+        <v>0.9999999999962953</v>
       </c>
       <c r="P6">
-        <v>0.9999999999779438</v>
+        <v>0.5773502691499859</v>
       </c>
       <c r="Q6">
-        <v>30.00000000006703</v>
+        <v>59.99999999857484</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999585</v>
       </c>
       <c r="S6">
-        <v>149.9999999983258</v>
+        <v>120.000000009288</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -5749,7 +5749,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>3.185550570031945</v>
+        <v>3.012913138756735</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -5758,7 +5758,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>202.309632703762</v>
+        <v>191.3456832876778</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -5767,43 +5767,43 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1.504993724976294</v>
+        <v>1.504993724976284</v>
       </c>
       <c r="I2">
-        <v>15.04993697142828</v>
+        <v>15.04993697142822</v>
       </c>
       <c r="J2">
-        <v>2.024404383466214</v>
+        <v>1.504993722648794</v>
       </c>
       <c r="K2">
-        <v>13.05836749311504</v>
+        <v>15.04993697229388</v>
       </c>
       <c r="L2">
-        <v>2.024404381992635</v>
+        <v>1.50499372069543</v>
       </c>
       <c r="M2">
-        <v>13.05836749319938</v>
+        <v>15.04993697229304</v>
       </c>
       <c r="N2">
-        <v>0.6492601482285217</v>
+        <v>0.6184267549947472</v>
       </c>
       <c r="O2">
-        <v>0.9999999999931319</v>
+        <v>0.9999999999908641</v>
       </c>
       <c r="P2">
-        <v>0.7558735434320361</v>
+        <v>0.7472997527351807</v>
       </c>
       <c r="Q2">
-        <v>40.89998195466983</v>
+        <v>41.77463363119256</v>
       </c>
       <c r="R2">
-        <v>-89.99999999997311</v>
+        <v>-89.99999999999652</v>
       </c>
       <c r="S2">
-        <v>130.4845578199177</v>
+        <v>128.1091583196818</v>
       </c>
       <c r="T2">
-        <v>3.185550570031945</v>
+        <v>3.012913138756735</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -5847,22 +5847,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8779880246854015</v>
+        <v>0.6184267550404211</v>
       </c>
       <c r="O3">
-        <v>0.9999999999942553</v>
+        <v>0.9999999999908707</v>
       </c>
       <c r="P3">
-        <v>0.7974307664728384</v>
+        <v>0.747299752657798</v>
       </c>
       <c r="Q3">
-        <v>40.26662841241223</v>
+        <v>41.77463363810636</v>
       </c>
       <c r="R3">
-        <v>-89.99999999986686</v>
+        <v>-89.99999999999615</v>
       </c>
       <c r="S3">
-        <v>147.1536897561192</v>
+        <v>128.1091583228107</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -5909,22 +5909,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9560674808654478</v>
+        <v>0.6184267550800499</v>
       </c>
       <c r="O4">
-        <v>0.9999999999965395</v>
+        <v>0.9999999999908707</v>
       </c>
       <c r="P4">
-        <v>0.9322424469691234</v>
+        <v>0.7472997526545254</v>
       </c>
       <c r="Q4">
-        <v>33.12748898724854</v>
+        <v>41.77463363817496</v>
       </c>
       <c r="R4">
-        <v>-89.99999999995319</v>
+        <v>-89.99999999999615</v>
       </c>
       <c r="S4">
-        <v>149.1887383182273</v>
+        <v>128.1091583258393</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -5971,22 +5971,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9999999999742338</v>
+        <v>0.6184267550932595</v>
       </c>
       <c r="O5">
-        <v>0.9999999999976816</v>
+        <v>0.9999999999908707</v>
       </c>
       <c r="P5">
-        <v>0.9999999999896948</v>
+        <v>0.7472997526534344</v>
       </c>
       <c r="Q5">
-        <v>29.99999999975154</v>
+        <v>41.77463363819785</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999616</v>
       </c>
       <c r="S5">
-        <v>149.9999999987068</v>
+        <v>128.1091583268488</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -6033,22 +6033,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9999999999742338</v>
+        <v>0.6184267550932595</v>
       </c>
       <c r="O6">
-        <v>0.9999999999976816</v>
+        <v>0.9999999999908707</v>
       </c>
       <c r="P6">
-        <v>0.9999999999896948</v>
+        <v>0.7472997526534344</v>
       </c>
       <c r="Q6">
-        <v>29.99999999975154</v>
+        <v>41.77463363819784</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999616</v>
       </c>
       <c r="S6">
-        <v>149.9999999987068</v>
+        <v>128.1091583268488</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -6134,7 +6134,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>3.185550570031945</v>
+        <v>3.012913138756735</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -6143,7 +6143,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>202.309632703762</v>
+        <v>191.3456832876778</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -6152,43 +6152,43 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1.504993724976294</v>
+        <v>1.504993724976284</v>
       </c>
       <c r="I2">
-        <v>15.04993697142828</v>
+        <v>15.04993697142822</v>
       </c>
       <c r="J2">
-        <v>2.024404383466214</v>
+        <v>1.504993722648794</v>
       </c>
       <c r="K2">
-        <v>13.05836749311504</v>
+        <v>15.04993697229388</v>
       </c>
       <c r="L2">
-        <v>2.024404381992635</v>
+        <v>1.50499372069543</v>
       </c>
       <c r="M2">
-        <v>13.05836749319938</v>
+        <v>15.04993697229304</v>
       </c>
       <c r="N2">
-        <v>0.6492601482285217</v>
+        <v>0.6184267549947472</v>
       </c>
       <c r="O2">
-        <v>0.9999999999931319</v>
+        <v>0.9999999999908641</v>
       </c>
       <c r="P2">
-        <v>0.7558735434320361</v>
+        <v>0.7472997527351807</v>
       </c>
       <c r="Q2">
-        <v>40.89998195466983</v>
+        <v>41.77463363119256</v>
       </c>
       <c r="R2">
-        <v>-89.99999999997311</v>
+        <v>-89.99999999999652</v>
       </c>
       <c r="S2">
-        <v>130.4845578199177</v>
+        <v>128.1091583196818</v>
       </c>
       <c r="T2">
-        <v>3.185550570031945</v>
+        <v>3.012913138756735</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -6232,22 +6232,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8779880246854015</v>
+        <v>0.6184267550404211</v>
       </c>
       <c r="O3">
-        <v>0.9999999999942553</v>
+        <v>0.9999999999908707</v>
       </c>
       <c r="P3">
-        <v>0.7974307664728384</v>
+        <v>0.747299752657798</v>
       </c>
       <c r="Q3">
-        <v>40.26662841241223</v>
+        <v>41.77463363810636</v>
       </c>
       <c r="R3">
-        <v>-89.99999999986686</v>
+        <v>-89.99999999999615</v>
       </c>
       <c r="S3">
-        <v>147.1536897561192</v>
+        <v>128.1091583228107</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -6294,22 +6294,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9560674808654478</v>
+        <v>0.6184267550800499</v>
       </c>
       <c r="O4">
-        <v>0.9999999999965395</v>
+        <v>0.9999999999908707</v>
       </c>
       <c r="P4">
-        <v>0.9322424469691234</v>
+        <v>0.7472997526545254</v>
       </c>
       <c r="Q4">
-        <v>33.12748898724854</v>
+        <v>41.77463363817496</v>
       </c>
       <c r="R4">
-        <v>-89.99999999995319</v>
+        <v>-89.99999999999615</v>
       </c>
       <c r="S4">
-        <v>149.1887383182273</v>
+        <v>128.1091583258393</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -6356,22 +6356,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9999999999742338</v>
+        <v>0.6184267550932595</v>
       </c>
       <c r="O5">
-        <v>0.9999999999976816</v>
+        <v>0.9999999999908707</v>
       </c>
       <c r="P5">
-        <v>0.9999999999896948</v>
+        <v>0.7472997526534344</v>
       </c>
       <c r="Q5">
-        <v>29.99999999975154</v>
+        <v>41.77463363819785</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999616</v>
       </c>
       <c r="S5">
-        <v>149.9999999987068</v>
+        <v>128.1091583268488</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -6418,22 +6418,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9999999999742338</v>
+        <v>0.6184267550932595</v>
       </c>
       <c r="O6">
-        <v>0.9999999999976816</v>
+        <v>0.9999999999908707</v>
       </c>
       <c r="P6">
-        <v>0.9999999999896948</v>
+        <v>0.7472997526534344</v>
       </c>
       <c r="Q6">
-        <v>29.99999999975154</v>
+        <v>41.77463363819784</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999616</v>
       </c>
       <c r="S6">
-        <v>149.9999999987068</v>
+        <v>128.1091583268488</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -6522,58 +6522,58 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>5.859762020634442</v>
+        <v>5.248639108736852</v>
       </c>
       <c r="D2">
-        <v>5.947998862758108</v>
+        <v>5.248639107970818</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>372.1448698000485</v>
+        <v>333.3333522539261</v>
       </c>
       <c r="G2">
-        <v>377.748661900828</v>
+        <v>333.3333522052764</v>
       </c>
       <c r="H2">
-        <v>1.324394477419385</v>
+        <v>1.324394477419386</v>
       </c>
       <c r="I2">
-        <v>13.24394453497092</v>
+        <v>13.243944534971</v>
       </c>
       <c r="J2">
-        <v>1.451153269669938</v>
+        <v>1.324394474186056</v>
       </c>
       <c r="K2">
-        <v>11.48161120921787</v>
+        <v>13.24394453578228</v>
       </c>
       <c r="L2">
-        <v>1.451153269621465</v>
+        <v>1.324394474104236</v>
       </c>
       <c r="M2">
-        <v>11.48161120914437</v>
+        <v>13.24394453563988</v>
       </c>
       <c r="N2">
-        <v>0.6640171027036537</v>
+        <v>0.6350853098347081</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.6640171027182687</v>
+        <v>0.6350853098507079</v>
       </c>
       <c r="Q2">
-        <v>0.4523199101654304</v>
+        <v>-4.877412548010482E-09</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
-        <v>-179.5476800888495</v>
+        <v>179.999999996043</v>
       </c>
       <c r="T2">
-        <v>5.487744842995168</v>
+        <v>5.24863910842028</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -6617,22 +6617,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8506126024089549</v>
+        <v>0.6350853097237735</v>
       </c>
       <c r="O3">
-        <v>0.7144044587888276</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.9837891594868297</v>
+        <v>0.6350853099661087</v>
       </c>
       <c r="Q3">
-        <v>27.71595287951278</v>
+        <v>1.367294711046319E-09</v>
       </c>
       <c r="R3">
-        <v>-74.9300013437748</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>162.5980446905851</v>
+        <v>-179.9999999983958</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -6679,22 +6679,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.016708418941938</v>
+        <v>0.6350853097106247</v>
       </c>
       <c r="O4">
-        <v>0.9652661898489436</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>1.055793408329967</v>
+        <v>0.6350853100065024</v>
       </c>
       <c r="Q4">
-        <v>29.36318525975024</v>
+        <v>4.890429623046234E-09</v>
       </c>
       <c r="R4">
-        <v>-86.32236814433109</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>153.8844780066663</v>
+        <v>-179.99999999913</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -6741,22 +6741,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.100000023812798</v>
+        <v>0.6350853097062418</v>
       </c>
       <c r="O5">
-        <v>1.100000023767813</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>1.100000023798957</v>
+        <v>0.635085310019967</v>
       </c>
       <c r="Q5">
-        <v>29.99999999831411</v>
+        <v>6.064796072658097E-09</v>
       </c>
       <c r="R5">
-        <v>-90.00000000116073</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>150.0000000005986</v>
+        <v>-179.9999999993748</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -6803,22 +6803,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.100000023812798</v>
+        <v>0.6350853097062419</v>
       </c>
       <c r="O6">
-        <v>1.100000023767813</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>1.100000023798957</v>
+        <v>0.6350853100199668</v>
       </c>
       <c r="Q6">
-        <v>29.99999999831411</v>
+        <v>6.064794416666137E-09</v>
       </c>
       <c r="R6">
-        <v>-90.00000000116073</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>150.0000000005986</v>
+        <v>-179.9999999993748</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -6907,58 +6907,58 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>5.859762020634442</v>
+        <v>5.248639108736852</v>
       </c>
       <c r="D2">
-        <v>5.947998862758108</v>
+        <v>5.248639107970818</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>372.1448698000485</v>
+        <v>333.3333522539261</v>
       </c>
       <c r="G2">
-        <v>377.748661900828</v>
+        <v>333.3333522052764</v>
       </c>
       <c r="H2">
-        <v>1.324394477419385</v>
+        <v>1.324394477419386</v>
       </c>
       <c r="I2">
-        <v>13.24394453497092</v>
+        <v>13.243944534971</v>
       </c>
       <c r="J2">
-        <v>1.451153269669938</v>
+        <v>1.324394474186056</v>
       </c>
       <c r="K2">
-        <v>11.48161120921787</v>
+        <v>13.24394453578228</v>
       </c>
       <c r="L2">
-        <v>1.451153269621465</v>
+        <v>1.324394474104236</v>
       </c>
       <c r="M2">
-        <v>11.48161120914437</v>
+        <v>13.24394453563988</v>
       </c>
       <c r="N2">
-        <v>0.6640171027036537</v>
+        <v>0.6350853098347081</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.6640171027182687</v>
+        <v>0.6350853098507079</v>
       </c>
       <c r="Q2">
-        <v>0.4523199101654304</v>
+        <v>-4.877412548010482E-09</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
-        <v>-179.5476800888495</v>
+        <v>179.999999996043</v>
       </c>
       <c r="T2">
-        <v>5.487744842995168</v>
+        <v>5.24863910842028</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -7002,22 +7002,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8506126024089549</v>
+        <v>0.6350853097237735</v>
       </c>
       <c r="O3">
-        <v>0.7144044587888276</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.9837891594868297</v>
+        <v>0.6350853099661087</v>
       </c>
       <c r="Q3">
-        <v>27.71595287951278</v>
+        <v>1.367294711046319E-09</v>
       </c>
       <c r="R3">
-        <v>-74.9300013437748</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>162.5980446905851</v>
+        <v>-179.9999999983958</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -7064,22 +7064,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.016708418941938</v>
+        <v>0.6350853097106247</v>
       </c>
       <c r="O4">
-        <v>0.9652661898489436</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>1.055793408329967</v>
+        <v>0.6350853100065024</v>
       </c>
       <c r="Q4">
-        <v>29.36318525975024</v>
+        <v>4.890429623046234E-09</v>
       </c>
       <c r="R4">
-        <v>-86.32236814433109</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>153.8844780066663</v>
+        <v>-179.99999999913</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -7126,22 +7126,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.100000023812798</v>
+        <v>0.6350853097062418</v>
       </c>
       <c r="O5">
-        <v>1.100000023767813</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>1.100000023798957</v>
+        <v>0.635085310019967</v>
       </c>
       <c r="Q5">
-        <v>29.99999999831411</v>
+        <v>6.064796072658097E-09</v>
       </c>
       <c r="R5">
-        <v>-90.00000000116073</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>150.0000000005986</v>
+        <v>-179.9999999993748</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -7188,22 +7188,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.100000023812798</v>
+        <v>0.6350853097062419</v>
       </c>
       <c r="O6">
-        <v>1.100000023767813</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>1.100000023798957</v>
+        <v>0.6350853100199668</v>
       </c>
       <c r="Q6">
-        <v>29.99999999831411</v>
+        <v>6.064794416666137E-09</v>
       </c>
       <c r="R6">
-        <v>-90.00000000116073</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>150.0000000005986</v>
+        <v>-179.9999999993748</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -7292,58 +7292,58 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>5.859762020634442</v>
+        <v>5.248639108736852</v>
       </c>
       <c r="D2">
-        <v>5.947998862758108</v>
+        <v>5.248639107970818</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>372.1448698000485</v>
+        <v>333.3333522539261</v>
       </c>
       <c r="G2">
-        <v>377.748661900828</v>
+        <v>333.3333522052764</v>
       </c>
       <c r="H2">
-        <v>1.324394477419385</v>
+        <v>1.324394477419386</v>
       </c>
       <c r="I2">
-        <v>13.24394453497092</v>
+        <v>13.243944534971</v>
       </c>
       <c r="J2">
-        <v>1.451153269669938</v>
+        <v>1.324394474186056</v>
       </c>
       <c r="K2">
-        <v>11.48161120921787</v>
+        <v>13.24394453578228</v>
       </c>
       <c r="L2">
-        <v>1.451153269621465</v>
+        <v>1.324394474104236</v>
       </c>
       <c r="M2">
-        <v>11.48161120914437</v>
+        <v>13.24394453563988</v>
       </c>
       <c r="N2">
-        <v>0.6640171027036537</v>
+        <v>0.6350853098347081</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.6640171027182687</v>
+        <v>0.6350853098507079</v>
       </c>
       <c r="Q2">
-        <v>0.4523199101654304</v>
+        <v>-4.877412548010482E-09</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
-        <v>-179.5476800888495</v>
+        <v>179.999999996043</v>
       </c>
       <c r="T2">
-        <v>5.487744842995168</v>
+        <v>5.24863910842028</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -7387,22 +7387,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8506126024089549</v>
+        <v>0.6350853097237735</v>
       </c>
       <c r="O3">
-        <v>0.7144044587888276</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.9837891594868297</v>
+        <v>0.6350853099661087</v>
       </c>
       <c r="Q3">
-        <v>27.71595287951278</v>
+        <v>1.367294711046319E-09</v>
       </c>
       <c r="R3">
-        <v>-74.9300013437748</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>162.5980446905851</v>
+        <v>-179.9999999983958</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -7449,22 +7449,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.016708418941938</v>
+        <v>0.6350853097106247</v>
       </c>
       <c r="O4">
-        <v>0.9652661898489436</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>1.055793408329967</v>
+        <v>0.6350853100065024</v>
       </c>
       <c r="Q4">
-        <v>29.36318525975024</v>
+        <v>4.890429623046234E-09</v>
       </c>
       <c r="R4">
-        <v>-86.32236814433109</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>153.8844780066663</v>
+        <v>-179.99999999913</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -7511,22 +7511,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.100000023812798</v>
+        <v>0.6350853097062418</v>
       </c>
       <c r="O5">
-        <v>1.100000023767813</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>1.100000023798957</v>
+        <v>0.635085310019967</v>
       </c>
       <c r="Q5">
-        <v>29.99999999831411</v>
+        <v>6.064796072658097E-09</v>
       </c>
       <c r="R5">
-        <v>-90.00000000116073</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>150.0000000005986</v>
+        <v>-179.9999999993748</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -7573,22 +7573,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.100000023812798</v>
+        <v>0.6350853097062419</v>
       </c>
       <c r="O6">
-        <v>1.100000023767813</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>1.100000023798957</v>
+        <v>0.6350853100199668</v>
       </c>
       <c r="Q6">
-        <v>29.99999999831411</v>
+        <v>6.064794416666137E-09</v>
       </c>
       <c r="R6">
-        <v>-90.00000000116073</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>150.0000000005986</v>
+        <v>-179.9999999993748</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -7677,58 +7677,58 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>5.859762020634442</v>
+        <v>5.248639108736852</v>
       </c>
       <c r="D2">
-        <v>5.947998862758108</v>
+        <v>5.248639107970818</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>372.1448698000485</v>
+        <v>333.3333522539261</v>
       </c>
       <c r="G2">
-        <v>377.748661900828</v>
+        <v>333.3333522052764</v>
       </c>
       <c r="H2">
-        <v>1.324394477419385</v>
+        <v>1.324394477419386</v>
       </c>
       <c r="I2">
-        <v>13.24394453497092</v>
+        <v>13.243944534971</v>
       </c>
       <c r="J2">
-        <v>1.451153269669938</v>
+        <v>1.324394474186056</v>
       </c>
       <c r="K2">
-        <v>11.48161120921787</v>
+        <v>13.24394453578228</v>
       </c>
       <c r="L2">
-        <v>1.451153269621465</v>
+        <v>1.324394474104236</v>
       </c>
       <c r="M2">
-        <v>11.48161120914437</v>
+        <v>13.24394453563988</v>
       </c>
       <c r="N2">
-        <v>0.6640171027036537</v>
+        <v>0.6350853098347081</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.6640171027182687</v>
+        <v>0.6350853098507079</v>
       </c>
       <c r="Q2">
-        <v>0.4523199101654304</v>
+        <v>-4.877412548010482E-09</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
-        <v>-179.5476800888495</v>
+        <v>179.999999996043</v>
       </c>
       <c r="T2">
-        <v>5.487744842995168</v>
+        <v>5.24863910842028</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -7772,22 +7772,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8506126024089549</v>
+        <v>0.6350853097237735</v>
       </c>
       <c r="O3">
-        <v>0.7144044587888276</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.9837891594868297</v>
+        <v>0.6350853099661087</v>
       </c>
       <c r="Q3">
-        <v>27.71595287951278</v>
+        <v>1.367294711046319E-09</v>
       </c>
       <c r="R3">
-        <v>-74.9300013437748</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>162.5980446905851</v>
+        <v>-179.9999999983958</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -7834,22 +7834,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.016708418941938</v>
+        <v>0.6350853097106247</v>
       </c>
       <c r="O4">
-        <v>0.9652661898489436</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>1.055793408329967</v>
+        <v>0.6350853100065024</v>
       </c>
       <c r="Q4">
-        <v>29.36318525975024</v>
+        <v>4.890429623046234E-09</v>
       </c>
       <c r="R4">
-        <v>-86.32236814433109</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>153.8844780066663</v>
+        <v>-179.99999999913</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -7896,22 +7896,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.100000023812798</v>
+        <v>0.6350853097062418</v>
       </c>
       <c r="O5">
-        <v>1.100000023767813</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>1.100000023798957</v>
+        <v>0.635085310019967</v>
       </c>
       <c r="Q5">
-        <v>29.99999999831411</v>
+        <v>6.064796072658097E-09</v>
       </c>
       <c r="R5">
-        <v>-90.00000000116073</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>150.0000000005986</v>
+        <v>-179.9999999993748</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -7958,22 +7958,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.100000023812798</v>
+        <v>0.6350853097062419</v>
       </c>
       <c r="O6">
-        <v>1.100000023767813</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>1.100000023798957</v>
+        <v>0.6350853100199668</v>
       </c>
       <c r="Q6">
-        <v>29.99999999831411</v>
+        <v>6.064794416666137E-09</v>
       </c>
       <c r="R6">
-        <v>-90.00000000116073</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>150.0000000005986</v>
+        <v>-179.9999999993748</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -8062,58 +8062,58 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.630622125934621</v>
+        <v>4.198911196109218</v>
       </c>
       <c r="D2">
-        <v>4.776779110533737</v>
+        <v>4.198911195412805</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>294.0840024016169</v>
+        <v>266.666676031469</v>
       </c>
       <c r="G2">
-        <v>303.3662175858638</v>
+        <v>266.6666759872408</v>
       </c>
       <c r="H2">
-        <v>1.504993724976211</v>
+        <v>1.504993724976225</v>
       </c>
       <c r="I2">
-        <v>15.04993697142936</v>
+        <v>15.04993697142947</v>
       </c>
       <c r="J2">
-        <v>2.024404382478945</v>
+        <v>1.504993721246245</v>
       </c>
       <c r="K2">
-        <v>13.05836749393382</v>
+        <v>15.04993697324838</v>
       </c>
       <c r="L2">
-        <v>2.024404381992582</v>
+        <v>1.5049937206953</v>
       </c>
       <c r="M2">
-        <v>13.05836749319961</v>
+        <v>15.04993697229334</v>
       </c>
       <c r="N2">
-        <v>0.6029168573039472</v>
+        <v>0.577350269195234</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.6029168572876368</v>
+        <v>0.5773502691743764</v>
       </c>
       <c r="Q2">
-        <v>0.9428673880370472</v>
+        <v>-5.812880099584224E-09</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
-        <v>-179.0571326126291</v>
+        <v>179.9999999936331</v>
       </c>
       <c r="T2">
-        <v>4.384850024956993</v>
+        <v>4.198911195821406</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -8157,22 +8157,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.6987064205403712</v>
+        <v>0.5773502690917838</v>
       </c>
       <c r="O3">
-        <v>0.5980950848484361</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.9023020494524507</v>
+        <v>0.5773502692819927</v>
       </c>
       <c r="Q3">
-        <v>29.35999724162531</v>
+        <v>5.928701121525565E-10</v>
       </c>
       <c r="R3">
-        <v>-62.81773553735131</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>167.8786734204687</v>
+        <v>179.9999999993227</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -8219,22 +8219,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8995580388533128</v>
+        <v>0.577350269091224</v>
       </c>
       <c r="O4">
-        <v>0.8489129241416846</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.9573727929065616</v>
+        <v>0.5773502693301076</v>
       </c>
       <c r="Q4">
-        <v>29.83430182944935</v>
+        <v>6.074349654285723E-09</v>
       </c>
       <c r="R4">
-        <v>-83.84124847414537</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>155.5346431308111</v>
+        <v>179.9999999966301</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -8281,22 +8281,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9999999999823268</v>
+        <v>0.5773502690910374</v>
       </c>
       <c r="O5">
-        <v>0.9999999999447641</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9999999999634983</v>
+        <v>0.577350269346146</v>
       </c>
       <c r="Q5">
-        <v>29.99999999826368</v>
+        <v>7.90155864512457E-09</v>
       </c>
       <c r="R5">
-        <v>-90.00000000173458</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>150.0000000001211</v>
+        <v>179.9999999957326</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -8343,22 +8343,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9999999999823268</v>
+        <v>0.5773502690910373</v>
       </c>
       <c r="O6">
-        <v>0.9999999999447641</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.9999999999634983</v>
+        <v>0.5773502693461458</v>
       </c>
       <c r="Q6">
-        <v>29.99999999826368</v>
+        <v>7.901535153381744E-09</v>
       </c>
       <c r="R6">
-        <v>-90.00000000173458</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>150.0000000001211</v>
+        <v>179.9999999957326</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -8405,22 +8405,22 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>6.036435464831131</v>
+        <v>5.248639108480241</v>
       </c>
       <c r="C2">
-        <v>1150.095421386799</v>
+        <v>1000.000056712887</v>
       </c>
       <c r="D2">
-        <v>1.451153269415916</v>
+        <v>1.324394473835045</v>
       </c>
       <c r="E2">
-        <v>11.48161120914761</v>
+        <v>13.24394453564037</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>82.79661841601046</v>
+        <v>84.28940677566905</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -8440,10 +8440,10 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7144044587805313</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>15.06999865688234</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -8463,10 +8463,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9652661898437347</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>3.677631855800109</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -8486,10 +8486,10 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.100000023764874</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>-1.16437508859067E-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -8509,10 +8509,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.100000023764874</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>-1.164375088590669E-09</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -8598,58 +8598,58 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.630622125934621</v>
+        <v>4.198911196109218</v>
       </c>
       <c r="D2">
-        <v>4.776779110533737</v>
+        <v>4.198911195412805</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>294.0840024016169</v>
+        <v>266.666676031469</v>
       </c>
       <c r="G2">
-        <v>303.3662175858638</v>
+        <v>266.6666759872408</v>
       </c>
       <c r="H2">
-        <v>1.504993724976211</v>
+        <v>1.504993724976225</v>
       </c>
       <c r="I2">
-        <v>15.04993697142936</v>
+        <v>15.04993697142947</v>
       </c>
       <c r="J2">
-        <v>2.024404382478945</v>
+        <v>1.504993721246245</v>
       </c>
       <c r="K2">
-        <v>13.05836749393382</v>
+        <v>15.04993697324838</v>
       </c>
       <c r="L2">
-        <v>2.024404381992582</v>
+        <v>1.5049937206953</v>
       </c>
       <c r="M2">
-        <v>13.05836749319961</v>
+        <v>15.04993697229334</v>
       </c>
       <c r="N2">
-        <v>0.6029168573039472</v>
+        <v>0.577350269195234</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.6029168572876368</v>
+        <v>0.5773502691743764</v>
       </c>
       <c r="Q2">
-        <v>0.9428673880370472</v>
+        <v>-5.812880099584224E-09</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
-        <v>-179.0571326126291</v>
+        <v>179.9999999936331</v>
       </c>
       <c r="T2">
-        <v>4.384850024956993</v>
+        <v>4.198911195821406</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -8693,22 +8693,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.6987064205403712</v>
+        <v>0.5773502690917838</v>
       </c>
       <c r="O3">
-        <v>0.5980950848484361</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.9023020494524507</v>
+        <v>0.5773502692819927</v>
       </c>
       <c r="Q3">
-        <v>29.35999724162531</v>
+        <v>5.928701121525565E-10</v>
       </c>
       <c r="R3">
-        <v>-62.81773553735131</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>167.8786734204687</v>
+        <v>179.9999999993227</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -8755,22 +8755,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8995580388533128</v>
+        <v>0.577350269091224</v>
       </c>
       <c r="O4">
-        <v>0.8489129241416846</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.9573727929065616</v>
+        <v>0.5773502693301076</v>
       </c>
       <c r="Q4">
-        <v>29.83430182944935</v>
+        <v>6.074349654285723E-09</v>
       </c>
       <c r="R4">
-        <v>-83.84124847414537</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>155.5346431308111</v>
+        <v>179.9999999966301</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -8817,22 +8817,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9999999999823268</v>
+        <v>0.5773502690910374</v>
       </c>
       <c r="O5">
-        <v>0.9999999999447641</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9999999999634983</v>
+        <v>0.577350269346146</v>
       </c>
       <c r="Q5">
-        <v>29.99999999826368</v>
+        <v>7.90155864512457E-09</v>
       </c>
       <c r="R5">
-        <v>-90.00000000173458</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>150.0000000001211</v>
+        <v>179.9999999957326</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -8879,22 +8879,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9999999999823268</v>
+        <v>0.5773502690910373</v>
       </c>
       <c r="O6">
-        <v>0.9999999999447641</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.9999999999634983</v>
+        <v>0.5773502693461458</v>
       </c>
       <c r="Q6">
-        <v>29.99999999826368</v>
+        <v>7.901535153381744E-09</v>
       </c>
       <c r="R6">
-        <v>-90.00000000173458</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>150.0000000001211</v>
+        <v>179.9999999957326</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -8983,58 +8983,58 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.630622125934621</v>
+        <v>4.198911196109218</v>
       </c>
       <c r="D2">
-        <v>4.776779110533737</v>
+        <v>4.198911195412805</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>294.0840024016169</v>
+        <v>266.666676031469</v>
       </c>
       <c r="G2">
-        <v>303.3662175858638</v>
+        <v>266.6666759872408</v>
       </c>
       <c r="H2">
-        <v>1.504993724976211</v>
+        <v>1.504993724976225</v>
       </c>
       <c r="I2">
-        <v>15.04993697142936</v>
+        <v>15.04993697142947</v>
       </c>
       <c r="J2">
-        <v>2.024404382478945</v>
+        <v>1.504993721246245</v>
       </c>
       <c r="K2">
-        <v>13.05836749393382</v>
+        <v>15.04993697324838</v>
       </c>
       <c r="L2">
-        <v>2.024404381992582</v>
+        <v>1.5049937206953</v>
       </c>
       <c r="M2">
-        <v>13.05836749319961</v>
+        <v>15.04993697229334</v>
       </c>
       <c r="N2">
-        <v>0.6029168573039472</v>
+        <v>0.577350269195234</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.6029168572876368</v>
+        <v>0.5773502691743764</v>
       </c>
       <c r="Q2">
-        <v>0.9428673880370472</v>
+        <v>-5.812880099584224E-09</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
-        <v>-179.0571326126291</v>
+        <v>179.9999999936331</v>
       </c>
       <c r="T2">
-        <v>4.384850024956993</v>
+        <v>4.198911195821406</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -9078,22 +9078,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.6987064205403712</v>
+        <v>0.5773502690917838</v>
       </c>
       <c r="O3">
-        <v>0.5980950848484361</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.9023020494524507</v>
+        <v>0.5773502692819927</v>
       </c>
       <c r="Q3">
-        <v>29.35999724162531</v>
+        <v>5.928701121525565E-10</v>
       </c>
       <c r="R3">
-        <v>-62.81773553735131</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>167.8786734204687</v>
+        <v>179.9999999993227</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -9140,22 +9140,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8995580388533128</v>
+        <v>0.577350269091224</v>
       </c>
       <c r="O4">
-        <v>0.8489129241416846</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.9573727929065616</v>
+        <v>0.5773502693301076</v>
       </c>
       <c r="Q4">
-        <v>29.83430182944935</v>
+        <v>6.074349654285723E-09</v>
       </c>
       <c r="R4">
-        <v>-83.84124847414537</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>155.5346431308111</v>
+        <v>179.9999999966301</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -9202,22 +9202,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9999999999823268</v>
+        <v>0.5773502690910374</v>
       </c>
       <c r="O5">
-        <v>0.9999999999447641</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9999999999634983</v>
+        <v>0.577350269346146</v>
       </c>
       <c r="Q5">
-        <v>29.99999999826368</v>
+        <v>7.90155864512457E-09</v>
       </c>
       <c r="R5">
-        <v>-90.00000000173458</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>150.0000000001211</v>
+        <v>179.9999999957326</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -9264,22 +9264,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9999999999823268</v>
+        <v>0.5773502690910373</v>
       </c>
       <c r="O6">
-        <v>0.9999999999447641</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.9999999999634983</v>
+        <v>0.5773502693461458</v>
       </c>
       <c r="Q6">
-        <v>29.99999999826368</v>
+        <v>7.901535153381744E-09</v>
       </c>
       <c r="R6">
-        <v>-90.00000000173458</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>150.0000000001211</v>
+        <v>179.9999999957326</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -9368,58 +9368,58 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.630622125934621</v>
+        <v>4.198911196109218</v>
       </c>
       <c r="D2">
-        <v>4.776779110533737</v>
+        <v>4.198911195412805</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>294.0840024016169</v>
+        <v>266.666676031469</v>
       </c>
       <c r="G2">
-        <v>303.3662175858638</v>
+        <v>266.6666759872408</v>
       </c>
       <c r="H2">
-        <v>1.504993724976211</v>
+        <v>1.504993724976225</v>
       </c>
       <c r="I2">
-        <v>15.04993697142936</v>
+        <v>15.04993697142947</v>
       </c>
       <c r="J2">
-        <v>2.024404382478945</v>
+        <v>1.504993721246245</v>
       </c>
       <c r="K2">
-        <v>13.05836749393382</v>
+        <v>15.04993697324838</v>
       </c>
       <c r="L2">
-        <v>2.024404381992582</v>
+        <v>1.5049937206953</v>
       </c>
       <c r="M2">
-        <v>13.05836749319961</v>
+        <v>15.04993697229334</v>
       </c>
       <c r="N2">
-        <v>0.6029168573039472</v>
+        <v>0.577350269195234</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.6029168572876368</v>
+        <v>0.5773502691743764</v>
       </c>
       <c r="Q2">
-        <v>0.9428673880370472</v>
+        <v>-5.812880099584224E-09</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
-        <v>-179.0571326126291</v>
+        <v>179.9999999936331</v>
       </c>
       <c r="T2">
-        <v>4.384850024956993</v>
+        <v>4.198911195821406</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -9463,22 +9463,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.6987064205403712</v>
+        <v>0.5773502690917838</v>
       </c>
       <c r="O3">
-        <v>0.5980950848484361</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.9023020494524507</v>
+        <v>0.5773502692819927</v>
       </c>
       <c r="Q3">
-        <v>29.35999724162531</v>
+        <v>5.928701121525565E-10</v>
       </c>
       <c r="R3">
-        <v>-62.81773553735131</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>167.8786734204687</v>
+        <v>179.9999999993227</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -9525,22 +9525,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8995580388533128</v>
+        <v>0.577350269091224</v>
       </c>
       <c r="O4">
-        <v>0.8489129241416846</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.9573727929065616</v>
+        <v>0.5773502693301076</v>
       </c>
       <c r="Q4">
-        <v>29.83430182944935</v>
+        <v>6.074349654285723E-09</v>
       </c>
       <c r="R4">
-        <v>-83.84124847414537</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>155.5346431308111</v>
+        <v>179.9999999966301</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -9587,22 +9587,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9999999999823268</v>
+        <v>0.5773502690910374</v>
       </c>
       <c r="O5">
-        <v>0.9999999999447641</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9999999999634983</v>
+        <v>0.577350269346146</v>
       </c>
       <c r="Q5">
-        <v>29.99999999826368</v>
+        <v>7.90155864512457E-09</v>
       </c>
       <c r="R5">
-        <v>-90.00000000173458</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>150.0000000001211</v>
+        <v>179.9999999957326</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -9649,22 +9649,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9999999999823268</v>
+        <v>0.5773502690910373</v>
       </c>
       <c r="O6">
-        <v>0.9999999999447641</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.9999999999634983</v>
+        <v>0.5773502693461458</v>
       </c>
       <c r="Q6">
-        <v>29.99999999826368</v>
+        <v>7.901535153381744E-09</v>
       </c>
       <c r="R6">
-        <v>-90.00000000173458</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>150.0000000001211</v>
+        <v>179.9999999957326</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -9711,22 +9711,22 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>6.036435464831131</v>
+        <v>5.248639108480241</v>
       </c>
       <c r="C2">
-        <v>1150.095421386799</v>
+        <v>1000.000056712887</v>
       </c>
       <c r="D2">
-        <v>1.451153269415916</v>
+        <v>1.324394473835045</v>
       </c>
       <c r="E2">
-        <v>11.48161120914761</v>
+        <v>13.24394453564037</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>82.79661841601046</v>
+        <v>84.28940677566905</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -9746,10 +9746,10 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7144044587805313</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>15.06999865688234</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -9769,10 +9769,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9652661898437347</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>3.677631855800109</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -9792,10 +9792,10 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.100000023764874</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>-1.16437508859067E-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -9815,10 +9815,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.100000023764874</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>-1.164375088590669E-09</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -9862,22 +9862,22 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>4.806025736759447</v>
+        <v>4.198911195753388</v>
       </c>
       <c r="C2">
-        <v>915.670883440611</v>
+        <v>800.0000280266122</v>
       </c>
       <c r="D2">
-        <v>2.024404382484105</v>
+        <v>1.504993721305344</v>
       </c>
       <c r="E2">
-        <v>13.05836749317373</v>
+        <v>15.0499369722939</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>81.18773556866032</v>
+        <v>84.28940677174621</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -9897,10 +9897,10 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5980950848260623</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>27.18226446401233</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -9920,10 +9920,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8489129241315863</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>6.158751525980541</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -9943,10 +9943,10 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9999999999426067</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>-1.738221878361521E-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -9966,10 +9966,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9999999999426067</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>-1.73822187836152E-09</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -10013,22 +10013,22 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>4.806025736759447</v>
+        <v>4.198911195753388</v>
       </c>
       <c r="C2">
-        <v>915.670883440611</v>
+        <v>800.0000280266122</v>
       </c>
       <c r="D2">
-        <v>2.024404382484105</v>
+        <v>1.504993721305344</v>
       </c>
       <c r="E2">
-        <v>13.05836749317373</v>
+        <v>15.0499369722939</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>81.18773556866032</v>
+        <v>84.28940677174621</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -10048,10 +10048,10 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5980950848260623</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>27.18226446401233</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -10071,10 +10071,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8489129241315863</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>6.158751525980541</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -10094,10 +10094,10 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9999999999426067</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>-1.738221878361521E-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -10117,10 +10117,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9999999999426067</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>-1.73822187836152E-09</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -10164,22 +10164,22 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>4.806025736759447</v>
+        <v>4.198911195753388</v>
       </c>
       <c r="C2">
-        <v>915.670883440611</v>
+        <v>800.0000280266122</v>
       </c>
       <c r="D2">
-        <v>2.024404382484105</v>
+        <v>1.504993721305344</v>
       </c>
       <c r="E2">
-        <v>13.05836749317373</v>
+        <v>15.0499369722939</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>81.18773556866032</v>
+        <v>84.28940677174621</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -10199,10 +10199,10 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5980950848260623</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>27.18226446401233</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -10222,10 +10222,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8489129241315863</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>6.158751525980541</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -10245,10 +10245,10 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9999999999426067</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>-1.738221878361521E-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -10268,10 +10268,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9999999999426067</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>-1.73822187836152E-09</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -10315,22 +10315,22 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>4.806025736759447</v>
+        <v>4.198911195753388</v>
       </c>
       <c r="C2">
-        <v>915.670883440611</v>
+        <v>800.0000280266122</v>
       </c>
       <c r="D2">
-        <v>2.024404382484105</v>
+        <v>1.504993721305344</v>
       </c>
       <c r="E2">
-        <v>13.05836749317373</v>
+        <v>15.0499369722939</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>81.18773556866032</v>
+        <v>84.28940677174621</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -10350,10 +10350,10 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5980950848260623</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>27.18226446401233</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -10373,10 +10373,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8489129241315863</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>6.158751525980541</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -10396,10 +10396,10 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9999999999426067</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>-1.738221878361521E-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -10419,10 +10419,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9999999999426067</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>-1.73822187836152E-09</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -10505,55 +10505,55 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>5.227706460716396</v>
+        <v>4.545454803106412</v>
       </c>
       <c r="D2">
-        <v>5.227706460716396</v>
+        <v>4.545454803106412</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>332.0039505572853</v>
+        <v>288.6751509579041</v>
       </c>
       <c r="G2">
-        <v>332.0039505572853</v>
+        <v>288.6751509579041</v>
       </c>
       <c r="H2">
-        <v>1.324394477419385</v>
+        <v>1.324394477419386</v>
       </c>
       <c r="I2">
-        <v>13.24394453497092</v>
+        <v>13.243944534971</v>
       </c>
       <c r="J2">
-        <v>1.451153269669938</v>
+        <v>1.324394474186056</v>
       </c>
       <c r="K2">
-        <v>11.48161120921787</v>
+        <v>13.24394453578228</v>
       </c>
       <c r="L2">
-        <v>1.451153269621465</v>
+        <v>1.324394474104236</v>
       </c>
       <c r="M2">
-        <v>11.48161120914437</v>
+        <v>13.24394453563988</v>
       </c>
       <c r="N2">
-        <v>0.9526279647838861</v>
+        <v>0.9526279647803685</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.9526279647872185</v>
+        <v>0.9526279647833882</v>
       </c>
       <c r="Q2">
-        <v>-5.560539075069481E-11</v>
+        <v>-8.692030605078384E-11</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
-        <v>-179.9999999998618</v>
+        <v>-179.9999999999071</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -10597,22 +10597,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9263628701224353</v>
+        <v>0.9526279646671955</v>
       </c>
       <c r="O3">
-        <v>0.7144044587905427</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>1.100926326725327</v>
+        <v>0.9526279648965608</v>
       </c>
       <c r="Q3">
-        <v>21.85971731009334</v>
+        <v>1.457878492964093E-10</v>
       </c>
       <c r="R3">
-        <v>-74.93000134425772</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>161.7419237440982</v>
+        <v>179.9999999998456</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -10656,22 +10656,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.03992931268325</v>
+        <v>0.9526279646404242</v>
       </c>
       <c r="O4">
-        <v>0.9652661898515371</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>1.095178757979144</v>
+        <v>0.9526279649233321</v>
       </c>
       <c r="Q4">
-        <v>27.59030792399508</v>
+        <v>1.564915676528601E-09</v>
       </c>
       <c r="R4">
-        <v>-86.32236814444742</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>153.9100668331029</v>
+        <v>179.9999999984265</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -10715,22 +10715,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.100000023834696</v>
+        <v>0.9526279646315002</v>
       </c>
       <c r="O5">
-        <v>1.100000023770273</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>1.100000023815336</v>
+        <v>0.9526279649322559</v>
       </c>
       <c r="Q5">
-        <v>29.99999999806144</v>
+        <v>2.037958276970909E-09</v>
       </c>
       <c r="R5">
-        <v>-90.00000000116073</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>150.0000000013491</v>
+        <v>179.9999999979535</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -10774,22 +10774,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.100000023834696</v>
+        <v>0.9526279646315001</v>
       </c>
       <c r="O6">
-        <v>1.100000023770273</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>1.100000023815336</v>
+        <v>0.9526279649322557</v>
       </c>
       <c r="Q6">
-        <v>29.99999999806144</v>
+        <v>2.03795072457894E-09</v>
       </c>
       <c r="R6">
-        <v>-90.00000000116073</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>150.0000000013491</v>
+        <v>179.9999999979534</v>
       </c>
     </row>
   </sheetData>
